--- a/new_instructions_7.xlsx
+++ b/new_instructions_7.xlsx
@@ -17,7 +17,7 @@
     <t>instruct_text</t>
   </si>
   <si>
-    <t xml:space="preserve">The 4 questions for each perspective are learned with quizzes. </t>
+    <t xml:space="preserve">The 4 questions for each perspective are learned with quizzes in this first part of the experiment as well. </t>
   </si>
   <si>
     <t xml:space="preserve">In the second part of the experiment, you will read 8 short stories. </t>
@@ -1443,7 +1443,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="79.55" customHeight="1">
+    <row r="2" ht="124.55" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>

--- a/new_instructions_7.xlsx
+++ b/new_instructions_7.xlsx
@@ -17,7 +17,7 @@
     <t>instruct_text</t>
   </si>
   <si>
-    <t xml:space="preserve">The 4 questions for each perspective are learned with quizzes in this first part of the experiment as well. </t>
+    <t xml:space="preserve">The 4 questions for each perspective are learned with quizzes in this first part of the experiment. </t>
   </si>
   <si>
     <t xml:space="preserve">In the second part of the experiment, you will read 8 short stories. </t>
@@ -1443,7 +1443,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="124.55" customHeight="1">
+    <row r="2" ht="109.55" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
